--- a/data/trans_orig/P57C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>22968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15721</v>
+        <v>15279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34784</v>
+        <v>34499</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03334912247745107</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02282718513132417</v>
+        <v>0.02218501319324344</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05050675171554454</v>
+        <v>0.05009304430033816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -762,19 +762,19 @@
         <v>29883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22756</v>
+        <v>22879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38999</v>
+        <v>37753</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04084677481373487</v>
+        <v>0.04084677481373488</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0311059355942562</v>
+        <v>0.03127334585881426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05330778305176592</v>
+        <v>0.05160439968479508</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -783,19 +783,19 @@
         <v>52850</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40793</v>
+        <v>41029</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65771</v>
+        <v>65757</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03721110963421598</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02872183610885442</v>
+        <v>0.02888808778294157</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04630819001393446</v>
+        <v>0.04629871686926972</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>43903</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33119</v>
+        <v>32788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56987</v>
+        <v>57958</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06374728823605331</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04808826677319922</v>
+        <v>0.04760834871225762</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08274519369501293</v>
+        <v>0.08415501450745583</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>104</v>
@@ -833,19 +833,19 @@
         <v>52500</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43065</v>
+        <v>42633</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62583</v>
+        <v>63307</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07176284783356948</v>
+        <v>0.0717628478335695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05886583689251762</v>
+        <v>0.05827467692836347</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08554551214802428</v>
+        <v>0.08653510369589414</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>162</v>
@@ -854,19 +854,19 @@
         <v>96403</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81402</v>
+        <v>81908</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>112490</v>
+        <v>112723</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06787604572325824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05731358400131249</v>
+        <v>0.05766970217723624</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07920261341193635</v>
+        <v>0.07936614740214099</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>93730</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77513</v>
+        <v>77383</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113613</v>
+        <v>113466</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1360957413163399</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1125486036684692</v>
+        <v>0.1123602171423294</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1649653696524884</v>
+        <v>0.1647519108334325</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>225</v>
@@ -904,19 +904,19 @@
         <v>120028</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105160</v>
+        <v>106067</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>137400</v>
+        <v>137711</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1640670297247669</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1437438150904542</v>
+        <v>0.1449832953132343</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1878130124815378</v>
+        <v>0.1882381994148605</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>337</v>
@@ -925,19 +925,19 @@
         <v>213758</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>191785</v>
+        <v>189772</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>237072</v>
+        <v>238274</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1505035521545061</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1350322445719478</v>
+        <v>0.1336150536738667</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1669186683543369</v>
+        <v>0.1677648303877108</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>281448</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>255368</v>
+        <v>256019</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>309224</v>
+        <v>309479</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4086610783333238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3707932492448769</v>
+        <v>0.3717387842084706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4489919339559116</v>
+        <v>0.4493620153329697</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>534</v>
@@ -975,19 +975,19 @@
         <v>310806</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>289894</v>
+        <v>290096</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>333717</v>
+        <v>332919</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4248425809014617</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3962569318173408</v>
+        <v>0.3965338964016414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4561596387057205</v>
+        <v>0.4550689010240889</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>847</v>
@@ -996,19 +996,19 @@
         <v>592254</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>559021</v>
+        <v>555587</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>630657</v>
+        <v>631231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.416996054708913</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3935970709140149</v>
+        <v>0.3911790589360016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4440349671347944</v>
+        <v>0.4444391888204309</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>246658</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>219306</v>
+        <v>219427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>278877</v>
+        <v>277189</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3581467696368319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3184311692541709</v>
+        <v>0.3186073237636949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.404928008204114</v>
+        <v>0.4024780898934789</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>310</v>
@@ -1046,19 +1046,19 @@
         <v>218363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>195569</v>
+        <v>199002</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>237736</v>
+        <v>240972</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2984807667264671</v>
+        <v>0.2984807667264672</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2673243590867633</v>
+        <v>0.2720162314889434</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3249617342079595</v>
+        <v>0.3293860621669963</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>525</v>
@@ -1067,19 +1067,19 @@
         <v>465021</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>428742</v>
+        <v>424607</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>503622</v>
+        <v>501732</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3274132377791066</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3018696483850721</v>
+        <v>0.2989588259867232</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3545917832795689</v>
+        <v>0.35326105341877</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>17795</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11032</v>
+        <v>11110</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28358</v>
+        <v>29060</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01696544659643411</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01051798404481877</v>
+        <v>0.01059159321521682</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02703592972971422</v>
+        <v>0.02770472935019578</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1192,19 +1192,19 @@
         <v>26890</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19922</v>
+        <v>19208</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41728</v>
+        <v>39492</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02519711420537999</v>
+        <v>0.02519711420537998</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01866809207565052</v>
+        <v>0.01799943937141635</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03910141254281717</v>
+        <v>0.03700592898915257</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -1213,19 +1213,19 @@
         <v>44685</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34263</v>
+        <v>33443</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61336</v>
+        <v>59929</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02111678485256767</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01619180194211252</v>
+        <v>0.0158040313181562</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02898558105327517</v>
+        <v>0.02832047986489102</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>53379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40536</v>
+        <v>41482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>68896</v>
+        <v>69781</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0508900291517687</v>
+        <v>0.05089002915176869</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03864554233563758</v>
+        <v>0.0395469808433147</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06568293694737559</v>
+        <v>0.06652705560678374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -1263,19 +1263,19 @@
         <v>86075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72682</v>
+        <v>72785</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>101569</v>
+        <v>100809</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08065741527454148</v>
+        <v>0.08065741527454146</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06810690714133667</v>
+        <v>0.06820354279732502</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.095176106779264</v>
+        <v>0.09446371882285841</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -1284,19 +1284,19 @@
         <v>139455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>121665</v>
+        <v>119728</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>162256</v>
+        <v>160904</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0659021135394169</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05749520118559995</v>
+        <v>0.05657995544671789</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07667721258830129</v>
+        <v>0.07603848582669817</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>115952</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>93964</v>
+        <v>95994</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>137884</v>
+        <v>137708</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1105443982590507</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08958179998026168</v>
+        <v>0.09151769351654221</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1314535979130488</v>
+        <v>0.1312859981228194</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>262</v>
@@ -1334,19 +1334,19 @@
         <v>175257</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>155019</v>
+        <v>155280</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>195475</v>
+        <v>199508</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.16422550036636</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1452618237071704</v>
+        <v>0.1455057395256259</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1831709034334817</v>
+        <v>0.1869507547234099</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>392</v>
@@ -1355,19 +1355,19 @@
         <v>291209</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>264328</v>
+        <v>262175</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>321691</v>
+        <v>321112</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1376164841833294</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1249135690017216</v>
+        <v>0.1238961813434119</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1520214606165864</v>
+        <v>0.1517480443892126</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>467636</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>431134</v>
+        <v>429036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>505377</v>
+        <v>502219</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4458279027458736</v>
+        <v>0.4458279027458737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.411027618730739</v>
+        <v>0.4090278649898983</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4818086643617808</v>
+        <v>0.4787980010401313</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>683</v>
@@ -1405,19 +1405,19 @@
         <v>464268</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>435859</v>
+        <v>435862</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>492075</v>
+        <v>495887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4350455855482318</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4084245926015403</v>
+        <v>0.4084271942922398</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4611024563971932</v>
+        <v>0.4646748085151431</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1130</v>
@@ -1426,19 +1426,19 @@
         <v>931904</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>885788</v>
+        <v>885492</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>980314</v>
+        <v>978098</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4403902383504245</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.41859682045076</v>
+        <v>0.4184568681503311</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4632671239233933</v>
+        <v>0.4622201058470604</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>394154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358287</v>
+        <v>357638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>429560</v>
+        <v>431556</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3757722232468728</v>
+        <v>0.3757722232468729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3415783708881164</v>
+        <v>0.3409588625426098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4095270891892033</v>
+        <v>0.4114299155344283</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>380</v>
@@ -1476,19 +1476,19 @@
         <v>314681</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>289166</v>
+        <v>284949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>342740</v>
+        <v>342604</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2948743846054869</v>
+        <v>0.2948743846054868</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2709650892931119</v>
+        <v>0.2670131727651512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3211667024509325</v>
+        <v>0.321039557864263</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>683</v>
@@ -1497,19 +1497,19 @@
         <v>708835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>664636</v>
+        <v>664293</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>758050</v>
+        <v>760830</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3349743790742616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3140869770851097</v>
+        <v>0.313924943144403</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.358231914937868</v>
+        <v>0.3595454303536083</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>11108</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5729</v>
+        <v>5092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20663</v>
+        <v>20574</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01386453912014338</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007150762907382921</v>
+        <v>0.006355143068983085</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02578957054643975</v>
+        <v>0.02567851022076696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1622,19 +1622,19 @@
         <v>7541</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3438</v>
+        <v>3221</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18588</v>
+        <v>16217</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.009345626239789172</v>
+        <v>0.009345626239789174</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004260601973867922</v>
+        <v>0.003991371158327722</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0230350886802236</v>
+        <v>0.02009607831322959</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1643,19 +1643,19 @@
         <v>18650</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11493</v>
+        <v>11257</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31059</v>
+        <v>30405</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01159701403227073</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00714643333510397</v>
+        <v>0.006999742073963081</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01931344101188658</v>
+        <v>0.018906834798683</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>24113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15352</v>
+        <v>15725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36294</v>
+        <v>35487</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03009615472315782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.019161355639237</v>
+        <v>0.01962624081941848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04529922586290207</v>
+        <v>0.04429109524572791</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1693,19 +1693,19 @@
         <v>38652</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27458</v>
+        <v>27427</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53883</v>
+        <v>51937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04789806879272447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03402712650372212</v>
+        <v>0.03398846201301398</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0667738214750395</v>
+        <v>0.0643623797356299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>69</v>
@@ -1714,19 +1714,19 @@
         <v>62765</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48100</v>
+        <v>48619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79860</v>
+        <v>79580</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03902889758270404</v>
+        <v>0.03902889758270403</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02990967827136568</v>
+        <v>0.03023263918679038</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0496589979123904</v>
+        <v>0.04948520374722779</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>78881</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61595</v>
+        <v>61104</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>98252</v>
+        <v>98304</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09845274491938384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07687796276479338</v>
+        <v>0.07626491635855005</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.122628791875692</v>
+        <v>0.1226937535057902</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>124</v>
@@ -1764,19 +1764,19 @@
         <v>87344</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72501</v>
+        <v>72263</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>103081</v>
+        <v>105189</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1082397182052858</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08984481505800224</v>
+        <v>0.08954982959978054</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1277402683343486</v>
+        <v>0.1303535131454466</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>200</v>
@@ -1785,19 +1785,19 @@
         <v>166226</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>143310</v>
+        <v>143931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>191758</v>
+        <v>191162</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.103363706481976</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0891141343934351</v>
+        <v>0.08950019970750278</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1192401107377969</v>
+        <v>0.1188694418321988</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>393672</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>361118</v>
+        <v>361011</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>425309</v>
+        <v>425023</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.491345952756556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4507150051686363</v>
+        <v>0.450582168202981</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5308326763952337</v>
+        <v>0.5304754228299009</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>531</v>
@@ -1835,19 +1835,19 @@
         <v>399726</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>374384</v>
+        <v>373479</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>427975</v>
+        <v>428716</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4953520929630559</v>
+        <v>0.495352092963056</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4639472960563728</v>
+        <v>0.4628262248322704</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5303588957752182</v>
+        <v>0.5312767448566674</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>874</v>
@@ -1856,19 +1856,19 @@
         <v>793398</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>747287</v>
+        <v>751448</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>836855</v>
+        <v>836070</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.493356175937283</v>
+        <v>0.4933561759372831</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4646829231575899</v>
+        <v>0.4672705025625182</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5203789482598817</v>
+        <v>0.5198905524153702</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>293436</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>262704</v>
+        <v>263263</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>326932</v>
+        <v>324650</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3662406084807588</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3278839988081424</v>
+        <v>0.3285811842910409</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4080478873479723</v>
+        <v>0.4051993757667427</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>332</v>
@@ -1906,19 +1906,19 @@
         <v>273690</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248673</v>
+        <v>249370</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>301829</v>
+        <v>298761</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3391644937991445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3081629430736562</v>
+        <v>0.3090261413026357</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3740352890968711</v>
+        <v>0.3702325967817418</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>553</v>
@@ -1927,19 +1927,19 @@
         <v>567126</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>520603</v>
+        <v>525683</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>610847</v>
+        <v>608246</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3526542059657662</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3237247361414219</v>
+        <v>0.3268838643805654</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3798412715384958</v>
+        <v>0.3782234581586497</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>20465</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12526</v>
+        <v>12927</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31634</v>
+        <v>32414</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0207025494098034</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01267149303850554</v>
+        <v>0.0130766826377496</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03200185890075238</v>
+        <v>0.03279060033732221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2052,19 +2052,19 @@
         <v>25718</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18034</v>
+        <v>17969</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34351</v>
+        <v>34799</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02305653032553667</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01616809001430305</v>
+        <v>0.01610989667864143</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03079607865454463</v>
+        <v>0.03119800609671182</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -2073,19 +2073,19 @@
         <v>46183</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35820</v>
+        <v>35606</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60357</v>
+        <v>60545</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02195053406508421</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01702519400673289</v>
+        <v>0.01692336948562888</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02868774041053154</v>
+        <v>0.02877705373356532</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>53057</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>40989</v>
+        <v>40599</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>68430</v>
+        <v>68283</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0536731799538317</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04146461036955562</v>
+        <v>0.04107056947214745</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06922483235555708</v>
+        <v>0.06907593546133728</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>115</v>
@@ -2123,19 +2123,19 @@
         <v>74681</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>61998</v>
+        <v>60463</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>90065</v>
+        <v>90093</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.0669529151302275</v>
+        <v>0.06695291513022748</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05558254642322263</v>
+        <v>0.0542061315745404</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08074498058356211</v>
+        <v>0.08077035676370913</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>179</v>
@@ -2144,19 +2144,19 @@
         <v>127738</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>109639</v>
+        <v>110029</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>147007</v>
+        <v>150168</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.06071355382244156</v>
+        <v>0.06071355382244155</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05211120802231305</v>
+        <v>0.05229646786321682</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06987192261936</v>
+        <v>0.07137445490855999</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>153949</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>132485</v>
+        <v>131141</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>179001</v>
+        <v>175553</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1557367736076685</v>
+        <v>0.1557367736076686</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1340238351443318</v>
+        <v>0.1326646923486811</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1810797182572634</v>
+        <v>0.1775924516706575</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>284</v>
@@ -2194,19 +2194,19 @@
         <v>195348</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>175332</v>
+        <v>173979</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>223964</v>
+        <v>219479</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1751334539935286</v>
+        <v>0.1751334539935285</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1571887868543081</v>
+        <v>0.1559752554348991</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2007883497556051</v>
+        <v>0.1967667307642487</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>460</v>
@@ -2215,19 +2215,19 @@
         <v>349297</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>317937</v>
+        <v>317291</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>383529</v>
+        <v>383900</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1660201022970174</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1511147369361933</v>
+        <v>0.1508079626386355</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.182290566156138</v>
+        <v>0.1824670739912023</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>454529</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>420203</v>
+        <v>421023</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>487628</v>
+        <v>487428</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4598082270784952</v>
+        <v>0.4598082270784953</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4250834585929336</v>
+        <v>0.4259138159766834</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.493291484506533</v>
+        <v>0.4930892105833243</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>684</v>
@@ -2265,19 +2265,19 @@
         <v>479144</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>449136</v>
+        <v>452280</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>509351</v>
+        <v>506652</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4295617599163006</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4026593963212974</v>
+        <v>0.4054774330610793</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4566429162931052</v>
+        <v>0.4542231647316542</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1163</v>
@@ -2286,19 +2286,19 @@
         <v>933673</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>891982</v>
+        <v>893625</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>977209</v>
+        <v>977843</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.443772784037057</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.423957213085332</v>
+        <v>0.424738288017149</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4644656436399405</v>
+        <v>0.4647667353301393</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>306519</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>272854</v>
+        <v>272296</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>339202</v>
+        <v>339052</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.310079269950201</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2760229079718172</v>
+        <v>0.2754585954210448</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3431415145148998</v>
+        <v>0.3429902174840734</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>436</v>
@@ -2336,19 +2336,19 @@
         <v>340534</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>312964</v>
+        <v>313797</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>368892</v>
+        <v>368608</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3052953406344066</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2805779861091115</v>
+        <v>0.2813246346124454</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3307190258843237</v>
+        <v>0.3304643772620883</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>700</v>
@@ -2357,19 +2357,19 @@
         <v>647053</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>606744</v>
+        <v>606799</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>691034</v>
+        <v>691051</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3075430257784</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2883843950177463</v>
+        <v>0.2884105301413392</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3284472671308231</v>
+        <v>0.3284550415774837</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>72336</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>56372</v>
+        <v>56188</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>91411</v>
+        <v>90453</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02050727135559764</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01598148284204968</v>
+        <v>0.01592931286182438</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0259147761920572</v>
+        <v>0.02564327956102475</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>153</v>
@@ -2482,19 +2482,19 @@
         <v>90032</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>75886</v>
+        <v>76862</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109315</v>
+        <v>109663</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02419470086168905</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02039337434595833</v>
+        <v>0.02065557855445676</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02937678458034629</v>
+        <v>0.02947043509447377</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>234</v>
@@ -2503,19 +2503,19 @@
         <v>162368</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>139381</v>
+        <v>140496</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>186951</v>
+        <v>187414</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02240027465368698</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0192290338956017</v>
+        <v>0.01938284247682797</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02579170923085428</v>
+        <v>0.02585565622358517</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>174453</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>150327</v>
+        <v>149940</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>200861</v>
+        <v>201660</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04945716939856679</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04261763708145992</v>
+        <v>0.04250781661646494</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05694376329905727</v>
+        <v>0.05717044974537643</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>406</v>
@@ -2553,19 +2553,19 @@
         <v>251908</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>227060</v>
+        <v>226516</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>280958</v>
+        <v>280571</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06769664338014497</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06101898733836493</v>
+        <v>0.0608728922033515</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0755033928868598</v>
+        <v>0.07539930933574421</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>615</v>
@@ -2574,19 +2574,19 @@
         <v>426361</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>393805</v>
+        <v>391548</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>465395</v>
+        <v>465659</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05882070688328483</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05432930528124727</v>
+        <v>0.05401793831206385</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06420584495354166</v>
+        <v>0.06424222003447892</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>442512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>402492</v>
+        <v>404490</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>480319</v>
+        <v>480577</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1254515817034188</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1141058826997634</v>
+        <v>0.1146722952826898</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1361697782480545</v>
+        <v>0.1362429388920702</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>895</v>
@@ -2624,19 +2624,19 @@
         <v>577978</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>537388</v>
+        <v>543666</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>615503</v>
+        <v>618578</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1553231252008658</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.144415248794757</v>
+        <v>0.146102438565805</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1654075218207767</v>
+        <v>0.1662338608054157</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1389</v>
@@ -2645,19 +2645,19 @@
         <v>1020490</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>967006</v>
+        <v>969647</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1072649</v>
+        <v>1078381</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1407866356390328</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1334079779149192</v>
+        <v>0.1337724074166155</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1479824987417615</v>
+        <v>0.1487733264796227</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>1597285</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1531140</v>
+        <v>1535966</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1661490</v>
+        <v>1665028</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4528281405826163</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4340759855394531</v>
+        <v>0.4354443829463122</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4710302334529722</v>
+        <v>0.4720330781072427</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2432</v>
@@ -2695,19 +2695,19 @@
         <v>1653945</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1602056</v>
+        <v>1602070</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1711186</v>
+        <v>1705942</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.4444737656551407</v>
+        <v>0.4444737656551408</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4305295023060929</v>
+        <v>0.4305331938547898</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.459856669520107</v>
+        <v>0.4584472439319354</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4014</v>
@@ -2716,19 +2716,19 @@
         <v>3251230</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3167868</v>
+        <v>3164293</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3334903</v>
+        <v>3329053</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.4485392831915635</v>
+        <v>0.4485392831915636</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4370387106920258</v>
+        <v>0.4365454440794634</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.460082817380737</v>
+        <v>0.4592757341632313</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>1240767</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1172042</v>
+        <v>1177753</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1302162</v>
+        <v>1309673</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3517558369598005</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3322723742670162</v>
+        <v>0.3338912523970787</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3691610905217382</v>
+        <v>0.3712905658429888</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1458</v>
@@ -2766,19 +2766,19 @@
         <v>1147268</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1094959</v>
+        <v>1099062</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1199004</v>
+        <v>1197368</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3083117649021594</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2942545034489749</v>
+        <v>0.2953569806094108</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3222149973012177</v>
+        <v>0.3217753898075248</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2461</v>
@@ -2787,19 +2787,19 @@
         <v>2388036</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2310937</v>
+        <v>2309125</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2469965</v>
+        <v>2483391</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.3294530996324318</v>
+        <v>0.3294530996324317</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.318816557568889</v>
+        <v>0.3185666122896412</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.340756070837472</v>
+        <v>0.3426083605032819</v>
       </c>
     </row>
     <row r="33">
